--- a/ساعات کاری شهریور ماه ۱۴۰۲.xlsx
+++ b/ساعات کاری شهریور ماه ۱۴۰۲.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alahmadizadeh\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alahmadizadeh\Desktop\Time-Managment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B61D3130-A77B-4E05-B590-0DA4E04EFED6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F0902F5-93D6-436B-B7AB-45CAFF2A6013}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{FFE4B0A6-F16B-41F7-A037-03B1FFD25B17}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
     <t xml:space="preserve">روز </t>
   </si>
@@ -45,12 +45,6 @@
     <t>موضوع</t>
   </si>
   <si>
-    <t>طراحی درام</t>
-  </si>
-  <si>
-    <t>گزارش اسکرابر و درام</t>
-  </si>
-  <si>
     <t>ساعات کاری شهریور ماه ۱۴۰۲</t>
   </si>
   <si>
@@ -63,7 +57,45 @@
     <t>ساعت پایان</t>
   </si>
   <si>
-    <t>سرچ مقالات موجود کربن ۱۴</t>
+    <t>ترجمه و مطالعه رساله دکترا pm147</t>
+  </si>
+  <si>
+    <t>ترجمه و مطالعه رساله دکترا pm148</t>
+  </si>
+  <si>
+    <t>ترجمه و مطالعه رساله دکترا pm149</t>
+  </si>
+  <si>
+    <t>ترجمه و مطالعه مقاله Review—Betavoltaic Cell: The Past, Present, and
+Future</t>
+  </si>
+  <si>
+    <t>سرچ مقالات موجود کربن ۱۴ و پرمتیوم ۱۴۷</t>
+  </si>
+  <si>
+    <t>ترجمه و مطالعه مقاله Recent progress and perspective on batteries made from nuclear
+waste</t>
+  </si>
+  <si>
+    <t>سرچ LDS</t>
+  </si>
+  <si>
+    <t>آماده سازی گزارش pm147</t>
+  </si>
+  <si>
+    <t>سرچ کربن 14</t>
+  </si>
+  <si>
+    <t>گزارش کربن ۱۴</t>
+  </si>
+  <si>
+    <t>ادامه گزارش کربن و بررسی شرکت‌های تولید کننده</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سرچ خواص فیزیکی باتری کربن ۱۴ </t>
+  </si>
+  <si>
+    <t>تکمیل گزارش کربن ۱۴</t>
   </si>
 </sst>
 </file>
@@ -82,13 +114,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="B Nazanin"/>
-      <charset val="178"/>
     </font>
     <font>
       <b/>
@@ -110,8 +135,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="B Nazanin"/>
+      <charset val="178"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -130,6 +161,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="20">
     <border>
@@ -388,96 +425,108 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -796,8 +845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89FFD111-D2C8-4262-B3D7-B716FD3EAB63}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView rightToLeft="1" tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -810,552 +859,635 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="14"/>
+    </row>
+    <row r="2" spans="1:6" ht="24" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
+    </row>
+    <row r="3" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="22"/>
-    </row>
-    <row r="2" spans="1:6" ht="24" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="D3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="25"/>
-    </row>
-    <row r="3" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="E3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A4" s="25">
+        <v>1</v>
+      </c>
+      <c r="B4" s="26">
+        <v>45161</v>
+      </c>
+      <c r="C4" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="D4" s="28">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E4" s="28">
+        <f>D4-C4</f>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A5" s="25">
         <v>2</v>
       </c>
-      <c r="B3" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="28" t="s">
+      <c r="B5" s="26">
+        <v>45162</v>
+      </c>
+      <c r="C5" s="27">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D5" s="28">
+        <v>0.625</v>
+      </c>
+      <c r="E5" s="28">
+        <f t="shared" ref="E5:E34" si="0">D5-C5</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A6" s="25">
+        <v>3</v>
+      </c>
+      <c r="B6" s="26">
+        <v>45163</v>
+      </c>
+      <c r="C6" s="27">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D6" s="28">
+        <v>0.75</v>
+      </c>
+      <c r="E6" s="28">
+        <f t="shared" si="0"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="72" x14ac:dyDescent="0.25">
+      <c r="A7" s="25">
+        <v>4</v>
+      </c>
+      <c r="B7" s="26">
+        <v>45164</v>
+      </c>
+      <c r="C7" s="27">
+        <v>0.625</v>
+      </c>
+      <c r="D7" s="28">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E7" s="28">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A8" s="25">
+        <v>5</v>
+      </c>
+      <c r="B8" s="26">
+        <v>45165</v>
+      </c>
+      <c r="C8" s="27">
+        <v>0.625</v>
+      </c>
+      <c r="D8" s="28">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E8" s="28">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="72" x14ac:dyDescent="0.25">
+      <c r="A9" s="25">
+        <v>6</v>
+      </c>
+      <c r="B9" s="26">
+        <v>45166</v>
+      </c>
+      <c r="C9" s="27">
+        <v>0.625</v>
+      </c>
+      <c r="D9" s="28">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="E9" s="28">
+        <f t="shared" si="0"/>
+        <v>0.17708333333333337</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="72" x14ac:dyDescent="0.25">
+      <c r="A10" s="25">
+        <v>7</v>
+      </c>
+      <c r="B10" s="26">
+        <v>45167</v>
+      </c>
+      <c r="C10" s="27">
+        <v>0.625</v>
+      </c>
+      <c r="D10" s="28">
+        <v>0.79861111111111116</v>
+      </c>
+      <c r="E10" s="28">
+        <f t="shared" si="0"/>
+        <v>0.17361111111111116</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A11" s="25">
         <v>8</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="B11" s="26">
+        <v>45168</v>
+      </c>
+      <c r="C11" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="D11" s="28">
+        <v>0.625</v>
+      </c>
+      <c r="E11" s="28">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A12" s="25">
         <v>9</v>
       </c>
-      <c r="E3" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="30" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="19.5" x14ac:dyDescent="0.5">
-      <c r="A4" s="4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2">
-        <v>45161</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="D4" s="15">
+      <c r="B12" s="26">
+        <v>45169</v>
+      </c>
+      <c r="C12" s="27">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D12" s="28">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="E12" s="28">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A13" s="25">
+        <v>10</v>
+      </c>
+      <c r="B13" s="26">
+        <v>45170</v>
+      </c>
+      <c r="C13" s="27">
+        <v>0.375</v>
+      </c>
+      <c r="D13" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="28">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A14" s="25">
+        <v>11</v>
+      </c>
+      <c r="B14" s="26">
+        <v>45171</v>
+      </c>
+      <c r="C14" s="27">
+        <v>0.625</v>
+      </c>
+      <c r="D14" s="28">
+        <v>0.75</v>
+      </c>
+      <c r="E14" s="28">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A15" s="25">
+        <v>12</v>
+      </c>
+      <c r="B15" s="26">
+        <v>45172</v>
+      </c>
+      <c r="C15" s="27">
+        <v>0.625</v>
+      </c>
+      <c r="D15" s="28">
+        <v>0.75</v>
+      </c>
+      <c r="E15" s="28">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A16" s="25">
+        <v>13</v>
+      </c>
+      <c r="B16" s="26">
+        <v>45173</v>
+      </c>
+      <c r="C16" s="27">
+        <v>0.625</v>
+      </c>
+      <c r="D16" s="28">
+        <v>0.71875</v>
+      </c>
+      <c r="E16" s="28">
+        <f t="shared" si="0"/>
+        <v>9.375E-2</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A17" s="25">
+        <v>14</v>
+      </c>
+      <c r="B17" s="26">
+        <v>45174</v>
+      </c>
+      <c r="C17" s="27">
+        <v>0.625</v>
+      </c>
+      <c r="D17" s="28">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="E17" s="28">
+        <f t="shared" si="0"/>
+        <v>0.17708333333333337</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A18" s="25">
+        <v>15</v>
+      </c>
+      <c r="B18" s="26">
+        <v>45175</v>
+      </c>
+      <c r="C18" s="30">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D18" s="31">
+        <v>0.75</v>
+      </c>
+      <c r="E18" s="28">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="F18" s="29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A19" s="25">
+        <v>16</v>
+      </c>
+      <c r="B19" s="26">
+        <v>45176</v>
+      </c>
+      <c r="C19" s="30">
+        <v>0.375</v>
+      </c>
+      <c r="D19" s="31">
+        <v>0.625</v>
+      </c>
+      <c r="E19" s="28">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="F19" s="29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A20" s="25">
+        <v>17</v>
+      </c>
+      <c r="B20" s="26">
+        <v>45177</v>
+      </c>
+      <c r="C20" s="33"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="34"/>
+    </row>
+    <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A21" s="25">
+        <v>18</v>
+      </c>
+      <c r="B21" s="26">
+        <v>45178</v>
+      </c>
+      <c r="C21" s="33"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="34"/>
+    </row>
+    <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A22" s="25">
+        <v>19</v>
+      </c>
+      <c r="B22" s="26">
+        <v>45179</v>
+      </c>
+      <c r="C22" s="33"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="34"/>
+    </row>
+    <row r="23" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A23" s="25">
+        <v>20</v>
+      </c>
+      <c r="B23" s="26">
+        <v>45180</v>
+      </c>
+      <c r="C23" s="33"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="34"/>
+    </row>
+    <row r="24" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A24" s="25">
+        <v>21</v>
+      </c>
+      <c r="B24" s="26">
+        <v>45181</v>
+      </c>
+      <c r="C24" s="33"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="34"/>
+    </row>
+    <row r="25" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A25" s="25">
+        <v>22</v>
+      </c>
+      <c r="B25" s="26">
+        <v>45182</v>
+      </c>
+      <c r="C25" s="33"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="34"/>
+    </row>
+    <row r="26" spans="1:6" ht="36" x14ac:dyDescent="0.25">
+      <c r="A26" s="25">
+        <v>23</v>
+      </c>
+      <c r="B26" s="26">
+        <v>45183</v>
+      </c>
+      <c r="C26" s="30">
+        <v>0.375</v>
+      </c>
+      <c r="D26" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="E26" s="28">
+        <f>D26-C26</f>
+        <v>0.125</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A27" s="25">
+        <v>24</v>
+      </c>
+      <c r="B27" s="26">
+        <v>45184</v>
+      </c>
+      <c r="C27" s="33"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="34"/>
+    </row>
+    <row r="28" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A28" s="25">
+        <v>25</v>
+      </c>
+      <c r="B28" s="26">
+        <v>45185</v>
+      </c>
+      <c r="C28" s="33"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="34"/>
+    </row>
+    <row r="29" spans="1:6" ht="36" x14ac:dyDescent="0.25">
+      <c r="A29" s="25">
+        <v>26</v>
+      </c>
+      <c r="B29" s="26">
+        <v>45186</v>
+      </c>
+      <c r="C29" s="30">
+        <v>0.75</v>
+      </c>
+      <c r="D29" s="31">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E29" s="28">
+        <f t="shared" ref="E27:E34" si="1">D29-C29</f>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="F29" s="24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A30" s="25">
+        <v>27</v>
+      </c>
+      <c r="B30" s="26">
+        <v>45187</v>
+      </c>
+      <c r="C30" s="30">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D30" s="31">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E30" s="28">
+        <f t="shared" si="1"/>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="F30" s="29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A31" s="25">
+        <v>28</v>
+      </c>
+      <c r="B31" s="26">
+        <v>45188</v>
+      </c>
+      <c r="C31" s="30">
+        <v>0.625</v>
+      </c>
+      <c r="D31" s="31">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E31" s="28">
+        <f t="shared" si="1"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="F31" s="29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A32" s="25">
+        <v>29</v>
+      </c>
+      <c r="B32" s="26">
+        <v>45189</v>
+      </c>
+      <c r="C32" s="30">
+        <v>0.625</v>
+      </c>
+      <c r="D32" s="31">
+        <v>0.71875</v>
+      </c>
+      <c r="E32" s="28">
+        <f t="shared" si="1"/>
+        <v>9.375E-2</v>
+      </c>
+      <c r="F32" s="29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A33" s="25">
+        <v>30</v>
+      </c>
+      <c r="B33" s="26">
+        <v>45190</v>
+      </c>
+      <c r="C33" s="30">
+        <v>0.375</v>
+      </c>
+      <c r="D33" s="31">
         <v>0.45833333333333331</v>
       </c>
-      <c r="E4" s="15">
-        <f>D4-C4</f>
-        <v>0.125</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="19.5" x14ac:dyDescent="0.5">
-      <c r="A5" s="4">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2">
-        <v>45162</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0.10486111111111111</v>
-      </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="19.5" x14ac:dyDescent="0.5">
-      <c r="A6" s="4">
-        <v>3</v>
-      </c>
-      <c r="B6" s="2">
-        <v>45163</v>
-      </c>
-      <c r="C6" s="5">
-        <v>0.11041666666666666</v>
-      </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="19.5" x14ac:dyDescent="0.5">
-      <c r="A7" s="4">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2">
-        <v>45164</v>
-      </c>
-      <c r="C7" s="5">
-        <v>9.4444444444444442E-2</v>
-      </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="19.5" x14ac:dyDescent="0.5">
-      <c r="A8" s="4">
-        <v>5</v>
-      </c>
-      <c r="B8" s="2">
-        <v>45165</v>
-      </c>
-      <c r="C8" s="5">
-        <v>0</v>
-      </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" ht="19.5" x14ac:dyDescent="0.5">
-      <c r="A9" s="4">
-        <v>6</v>
-      </c>
-      <c r="B9" s="2">
-        <v>45166</v>
-      </c>
-      <c r="C9" s="5">
-        <v>0</v>
-      </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" ht="19.5" x14ac:dyDescent="0.5">
-      <c r="A10" s="4">
-        <v>7</v>
-      </c>
-      <c r="B10" s="2">
-        <v>45167</v>
-      </c>
-      <c r="C10" s="5">
-        <v>8.1250000000000003E-2</v>
-      </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="19.5" x14ac:dyDescent="0.5">
-      <c r="A11" s="4">
-        <v>8</v>
-      </c>
-      <c r="B11" s="2">
-        <v>45168</v>
-      </c>
-      <c r="C11" s="5">
-        <v>9.5833333333333326E-2</v>
-      </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="19.5" x14ac:dyDescent="0.5">
-      <c r="A12" s="4">
-        <v>9</v>
-      </c>
-      <c r="B12" s="2">
-        <v>45169</v>
-      </c>
-      <c r="C12" s="5">
-        <v>0</v>
-      </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" ht="19.5" x14ac:dyDescent="0.5">
-      <c r="A13" s="4">
-        <v>10</v>
-      </c>
-      <c r="B13" s="2">
-        <v>45170</v>
-      </c>
-      <c r="C13" s="5">
-        <v>0.11180555555555556</v>
-      </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="19.5" x14ac:dyDescent="0.5">
-      <c r="A14" s="4">
-        <v>11</v>
-      </c>
-      <c r="B14" s="2">
-        <v>45171</v>
-      </c>
-      <c r="C14" s="5">
-        <v>0</v>
-      </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" ht="19.5" x14ac:dyDescent="0.5">
-      <c r="A15" s="4">
-        <v>12</v>
-      </c>
-      <c r="B15" s="2">
-        <v>45172</v>
-      </c>
-      <c r="C15" s="5">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="D15" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="19.5" x14ac:dyDescent="0.5">
-      <c r="A16" s="4">
-        <v>13</v>
-      </c>
-      <c r="B16" s="2">
-        <v>45173</v>
-      </c>
-      <c r="C16" s="5">
-        <v>0</v>
-      </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" ht="19.5" x14ac:dyDescent="0.5">
-      <c r="A17" s="4">
-        <v>14</v>
-      </c>
-      <c r="B17" s="2">
-        <v>45174</v>
-      </c>
-      <c r="C17" s="5">
-        <v>0.11597222222222221</v>
-      </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="19.5" x14ac:dyDescent="0.5">
-      <c r="A18" s="4">
-        <v>15</v>
-      </c>
-      <c r="B18" s="2">
-        <v>45175</v>
-      </c>
-      <c r="C18" s="6">
-        <v>0.16388888888888889</v>
-      </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="19.5" x14ac:dyDescent="0.5">
-      <c r="A19" s="4">
-        <v>16</v>
-      </c>
-      <c r="B19" s="2">
-        <v>45176</v>
-      </c>
-      <c r="C19" s="6">
-        <v>8.5416666666666655E-2</v>
-      </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="19.5" x14ac:dyDescent="0.5">
-      <c r="A20" s="4">
-        <v>17</v>
-      </c>
-      <c r="B20" s="2">
-        <v>45177</v>
-      </c>
-      <c r="C20" s="6">
-        <v>0</v>
-      </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="1:6" ht="19.5" x14ac:dyDescent="0.5">
-      <c r="A21" s="4">
-        <v>18</v>
-      </c>
-      <c r="B21" s="2">
-        <v>45178</v>
-      </c>
-      <c r="C21" s="6">
-        <v>8.7500000000000008E-2</v>
-      </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="19.5" x14ac:dyDescent="0.5">
-      <c r="A22" s="4">
-        <v>19</v>
-      </c>
-      <c r="B22" s="2">
-        <v>45179</v>
-      </c>
-      <c r="C22" s="6">
-        <v>0.2673611111111111</v>
-      </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="19.5" x14ac:dyDescent="0.5">
-      <c r="A23" s="4">
+      <c r="E33" s="28">
+        <f t="shared" si="1"/>
+        <v>8.3333333333333315E-2</v>
+      </c>
+      <c r="F33" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="2">
-        <v>45180</v>
-      </c>
-      <c r="C23" s="6">
-        <v>0</v>
-      </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="1:6" ht="19.5" x14ac:dyDescent="0.5">
-      <c r="A24" s="4">
-        <v>21</v>
-      </c>
-      <c r="B24" s="2">
-        <v>45181</v>
-      </c>
-      <c r="C24" s="6">
-        <v>4.3055555555555562E-2</v>
-      </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="19.5" x14ac:dyDescent="0.5">
-      <c r="A25" s="4">
-        <v>22</v>
-      </c>
-      <c r="B25" s="2">
-        <v>45182</v>
-      </c>
-      <c r="C25" s="6">
-        <v>0.10486111111111111</v>
-      </c>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="19.5" x14ac:dyDescent="0.5">
-      <c r="A26" s="4">
-        <v>23</v>
-      </c>
-      <c r="B26" s="2">
-        <v>45183</v>
-      </c>
-      <c r="C26" s="6">
-        <v>0.12361111111111112</v>
-      </c>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="19.5" x14ac:dyDescent="0.5">
-      <c r="A27" s="4">
-        <v>24</v>
-      </c>
-      <c r="B27" s="2">
-        <v>45184</v>
-      </c>
-      <c r="C27" s="6">
-        <v>2.5694444444444447E-2</v>
-      </c>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="19.5" x14ac:dyDescent="0.5">
-      <c r="A28" s="4">
-        <v>25</v>
-      </c>
-      <c r="B28" s="2">
-        <v>45185</v>
-      </c>
-      <c r="C28" s="6">
-        <v>0.12430555555555556</v>
-      </c>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="19.5" x14ac:dyDescent="0.5">
-      <c r="A29" s="4">
-        <v>26</v>
-      </c>
-      <c r="B29" s="2">
-        <v>45186</v>
-      </c>
-      <c r="C29" s="6">
-        <v>0.23750000000000002</v>
-      </c>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="19.5" x14ac:dyDescent="0.5">
-      <c r="A30" s="4">
-        <v>27</v>
-      </c>
-      <c r="B30" s="2">
-        <v>45187</v>
-      </c>
-      <c r="C30" s="6">
-        <v>0</v>
-      </c>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="3"/>
-    </row>
-    <row r="31" spans="1:6" ht="19.5" x14ac:dyDescent="0.5">
-      <c r="A31" s="4">
-        <v>28</v>
-      </c>
-      <c r="B31" s="2">
-        <v>45188</v>
-      </c>
-      <c r="C31" s="6">
-        <v>0.16597222222222222</v>
-      </c>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="19.5" x14ac:dyDescent="0.5">
-      <c r="A32" s="4">
-        <v>29</v>
-      </c>
-      <c r="B32" s="2">
-        <v>45189</v>
-      </c>
-      <c r="C32" s="6">
-        <v>0.12638888888888888</v>
-      </c>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="19.5" x14ac:dyDescent="0.5">
-      <c r="A33" s="4">
-        <v>30</v>
-      </c>
-      <c r="B33" s="2">
-        <v>45190</v>
-      </c>
-      <c r="C33" s="6">
-        <v>0.10208333333333335</v>
-      </c>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="19.5" x14ac:dyDescent="0.5">
-      <c r="A34" s="4">
+    </row>
+    <row r="34" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A34" s="25">
         <v>31</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="26">
         <v>45191</v>
       </c>
-      <c r="C34" s="6">
-        <v>0.10069444444444443</v>
-      </c>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="C34" s="33"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="34"/>
     </row>
     <row r="35" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B35" s="8"/>
-      <c r="C35" s="11">
-        <f>SUM(C4:C34)</f>
-        <v>3.1395833333333338</v>
-      </c>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="12"/>
+      <c r="C35" s="15">
+        <f>SUM(E4:E34)</f>
+        <v>2.9027777777777777</v>
+      </c>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="17"/>
     </row>
     <row r="36" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="9"/>
       <c r="B36" s="10"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="14"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1364,8 +1496,8 @@
     <mergeCell ref="C35:F36"/>
     <mergeCell ref="A2:F2"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="65" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>